--- a/07-truthful-algorithms/code/vcg.xlsx
+++ b/07-truthful-algorithms/code/vcg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\ariel-algorithms\algorithms-5783\07-truthful-algorithms\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\ariel-algorithms\algorithms-5784\07-truthful-algorithms\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8BF5EC-5153-402B-B131-15BB5896C753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1898B2-FEEE-4A11-9B81-070335FC5816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="כללי" sheetId="1" r:id="rId1"/>
@@ -699,7 +699,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -997,22 +997,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView rightToLeft="1" zoomScale="205" zoomScaleNormal="205" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.3"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="6" width="6.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" customWidth="1"/>
-    <col min="8" max="11" width="6.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.27734375" customWidth="1"/>
+    <col min="5" max="6" width="6.71875" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" customWidth="1"/>
+    <col min="8" max="11" width="6.71875" customWidth="1"/>
+    <col min="12" max="12" width="7.83203125" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" customWidth="1"/>
     <col min="15" max="15" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1280,20 +1280,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A13" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.3"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="6" width="6.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" customWidth="1"/>
-    <col min="8" max="11" width="6.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.27734375" customWidth="1"/>
+    <col min="5" max="6" width="6.71875" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" customWidth="1"/>
+    <col min="8" max="11" width="6.71875" customWidth="1"/>
+    <col min="12" max="12" width="7.83203125" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" customWidth="1"/>
     <col min="15" max="15" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1576,18 +1578,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.3"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="6" width="6.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" customWidth="1"/>
-    <col min="8" max="11" width="6.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.27734375" customWidth="1"/>
+    <col min="5" max="6" width="6.71875" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" customWidth="1"/>
+    <col min="8" max="11" width="6.71875" customWidth="1"/>
+    <col min="12" max="12" width="7.83203125" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" customWidth="1"/>
     <col min="15" max="15" width="8" customWidth="1"/>
   </cols>
   <sheetData>
